--- a/tests/Test_plates/Test_1/Test_plate_2_repeat_1.xlsx
+++ b/tests/Test_plates/Test_1/Test_plate_2_repeat_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/array_sensing/tests/Test_plates/Test_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585A213-C8AD-914A-9BE8-704A24BCE767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2481C7B-EA4E-9A48-82D9-B6F4E66F3BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="1700" windowWidth="26040" windowHeight="13740" xr2:uid="{A57ED5CA-178C-274D-9302-EC541B909FEF}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>User: USER</t>
   </si>
@@ -218,9 +220,6 @@
   </si>
   <si>
     <t>Grey Asda</t>
-  </si>
-  <si>
-    <t>Median min fluor readings</t>
   </si>
   <si>
     <t>Median max fluor (blank) readings</t>
@@ -296,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,17 +337,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -357,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,16 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F83D9-DB82-C747-8614-DE60D98C1FE0}">
   <dimension ref="A3:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:I77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,252 +2096,20 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D49" t="s">
         <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f xml:space="preserve"> MEDIAN(N20, P20, L28, T28, X28)</f>
-        <v>157</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="30">
-        <f xml:space="preserve"> MEDIAN(B28, F28, H20, N28, R20)</f>
-        <v>176</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
-        <f xml:space="preserve"> MEDIAN(B20, D20, F20, H28, J28)</f>
-        <v>166</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f xml:space="preserve"> MEDIAN(J20, P28, R28, T20, X20)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>49</v>
@@ -2405,9 +2152,17 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D50">
+      <c r="B50">
+        <f xml:space="preserve"> MEDIAN(D28, L20, V20, V28)</f>
+        <v>123.5</v>
+      </c>
+      <c r="C50">
         <f xml:space="preserve"> MEDIAN(D29, L21, V21, V29)</f>
         <v>13568.5</v>
+      </c>
+      <c r="D50">
+        <f xml:space="preserve"> MEDIAN(D30, L22, V22, V30)</f>
+        <v>141</v>
       </c>
       <c r="E50">
         <f xml:space="preserve"> MEDIAN(D31, L23, V23, V31)</f>
@@ -2463,8 +2218,8 @@
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="32" t="s">
-        <v>64</v>
+      <c r="B53" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -2512,67 +2267,67 @@
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <f xml:space="preserve"> (L29 - $B$37) / (D50 - $B$37)</f>
-        <v>0.84032360287812702</v>
+        <f xml:space="preserve"> (L29 - B50) / (C50 - B50)</f>
+        <v>0.84072145779100038</v>
       </c>
       <c r="E55">
-        <f xml:space="preserve"> (L31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.80797101449275366</v>
+        <f xml:space="preserve"> (L31 - B50) / (E50 - B50)</f>
+        <v>0.82875605815831987</v>
       </c>
       <c r="F55">
-        <f xml:space="preserve"> (L24 - $B$37) / (F50 - $B$37)</f>
-        <v>0.87497507477567293</v>
+        <f xml:space="preserve"> (L24 - B50) / (F50 - B50)</f>
+        <v>0.87530824914485716</v>
       </c>
       <c r="G55">
-        <f xml:space="preserve"> (L25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75484634286927765</v>
+        <f xml:space="preserve"> (L25 - B50) / (G50 - B50)</f>
+        <v>0.7553436270057523</v>
       </c>
       <c r="H55">
-        <f xml:space="preserve"> (L26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.78029225397646451</v>
+        <f xml:space="preserve"> (L26 - B50) / (H50 - B50)</f>
+        <v>0.7809249548697671</v>
       </c>
       <c r="I55">
-        <f xml:space="preserve"> (L27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.64786249449096522</v>
+        <f xml:space="preserve"> (L27 - B50) / (I50 - B50)</f>
+        <v>0.65298588490770904</v>
       </c>
       <c r="J55">
-        <f xml:space="preserve"> (M28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.51867771978303145</v>
+        <f xml:space="preserve"> (M28 - B50) / (J50 - B50)</f>
+        <v>0.52195568204919696</v>
       </c>
       <c r="K55">
-        <f xml:space="preserve"> (M29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.60077686663789387</v>
+        <f xml:space="preserve"> (M29 - B50) / (K50 - B50)</f>
+        <v>0.61199664429530198</v>
       </c>
       <c r="L55">
-        <f xml:space="preserve"> (M30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.45013477088948789</v>
+        <f xml:space="preserve"> (M30 - B50) / (L50 - B50)</f>
+        <v>0.46227347611202635</v>
       </c>
       <c r="M55">
-        <f xml:space="preserve"> (M31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.54989112335083901</v>
+        <f xml:space="preserve"> (M31 - B50) / (M50 - B50)</f>
+        <v>0.55181429755755373</v>
       </c>
       <c r="N55">
-        <f xml:space="preserve"> (M24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.3057730832270989</v>
+        <f xml:space="preserve"> (M24 - B50) / (N50 - B50)</f>
+        <v>0.30998280387365373</v>
       </c>
       <c r="O55">
-        <f xml:space="preserve"> (M25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.2689712160859386</v>
+        <f xml:space="preserve"> (M25 - B50) / (O50 - B50)</f>
+        <v>0.27232846665295773</v>
       </c>
       <c r="P55">
-        <f xml:space="preserve"> (M26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.3830881049459316</v>
+        <f xml:space="preserve"> (M26 - B50) / (P50 - B50)</f>
+        <v>0.38491449781273473</v>
       </c>
       <c r="Q55">
-        <f xml:space="preserve"> (M27 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.31982942430703626</v>
+        <f xml:space="preserve"> (M27 - B50) / (Q50 - B50)</f>
+        <v>0.40485074626865669</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -2580,60 +2335,60 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <f xml:space="preserve"> (N21 - $B$37) / (D50 - $B$37)</f>
-        <v>0.87723222607463747</v>
+        <f xml:space="preserve"> (N21 - B50) / (C50 - B50)</f>
+        <v>0.87753811825957606</v>
       </c>
       <c r="E56">
-        <f xml:space="preserve"> (N23 - $B$37) / (E50 - $B$37)</f>
-        <v>0.86956521739130432</v>
+        <f xml:space="preserve"> (N23 - B50) / (E50 - B50)</f>
+        <v>0.88368336025848138</v>
       </c>
       <c r="F56">
-        <f xml:space="preserve"> (N16 - $B$37) / (F50 - $B$37)</f>
-        <v>0.8808773678963111</v>
+        <f xml:space="preserve"> (N16 - B50) / (F50 - B50)</f>
+        <v>0.88119481345954975</v>
       </c>
       <c r="G56">
-        <f xml:space="preserve"> (N17 - $B$37) / (G50 - $B$37)</f>
-        <v>0.76121712222795257</v>
+        <f xml:space="preserve"> (N17 - B50) / (G50 - B50)</f>
+        <v>0.76170148349984867</v>
       </c>
       <c r="H56">
-        <f xml:space="preserve"> (N18 - $B$37) / (H50 - $B$37)</f>
-        <v>0.75236001551791021</v>
+        <f xml:space="preserve"> (N18 - B50) / (H50 - B50)</f>
+        <v>0.75307315395856611</v>
       </c>
       <c r="I56">
-        <f xml:space="preserve"> (N19 - $B$37) / (I50 - $B$37)</f>
-        <v>0.64565888056412513</v>
+        <f xml:space="preserve"> (N19 - B50) / (I50 - B50)</f>
+        <v>0.65081433224755703</v>
       </c>
       <c r="J56">
-        <f xml:space="preserve"> (O20 - $B$37) / (J50 - $B$37)</f>
-        <v>0.55265581823764198</v>
+        <f xml:space="preserve"> (O20 - B50) / (J50 - B50)</f>
+        <v>0.55570237853222204</v>
       </c>
       <c r="K56">
-        <f xml:space="preserve"> (O21 - $B$37) / (K50 - $B$37)</f>
-        <v>0.5213638325420803</v>
+        <f xml:space="preserve"> (O21 - B50) / (K50 - B50)</f>
+        <v>0.53481543624161076</v>
       </c>
       <c r="L56">
-        <f xml:space="preserve"> (O22 - $B$37) / (L50 - $B$37)</f>
-        <v>0.44070080862533695</v>
+        <f xml:space="preserve"> (O22 - B50) / (L50 - B50)</f>
+        <v>0.45304777594728174</v>
       </c>
       <c r="M56">
-        <f xml:space="preserve"> (O23 - $B$37) / (M50 - $B$37)</f>
-        <v>0.58319456897655952</v>
+        <f xml:space="preserve"> (O23 - B50) / (M50 - B50)</f>
+        <v>0.58497544799438816</v>
       </c>
       <c r="N56">
-        <f xml:space="preserve"> (O16 - $B$37) / (N50 - $B$37)</f>
-        <v>0.34765980695683846</v>
+        <f xml:space="preserve"> (O16 - B50) / (N50 - B50)</f>
+        <v>0.35161553081726854</v>
       </c>
       <c r="O56">
-        <f xml:space="preserve"> (O17 - $B$37) / (O50 - $B$37)</f>
-        <v>0.28343203415507506</v>
+        <f xml:space="preserve"> (O17 - B50) / (O50 - B50)</f>
+        <v>0.28672287339776542</v>
       </c>
       <c r="P56">
-        <f xml:space="preserve"> (O18 - $B$37) / (P50 - $B$37)</f>
-        <v>0.35596525438751997</v>
+        <f xml:space="preserve"> (O18 - B50) / (P50 - B50)</f>
+        <v>0.35787194556139806</v>
       </c>
       <c r="Q56">
-        <f xml:space="preserve"> (O19 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.31130063965884863</v>
+        <f xml:space="preserve"> (O19 - B50) / (Q50 - B50)</f>
+        <v>0.39738805970149255</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -2641,60 +2396,60 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <f xml:space="preserve"> (P21 - $B$37) / (D50 - $B$37)</f>
-        <v>0.83808671662379297</v>
+        <f xml:space="preserve"> (P21 - B50) / (C50 - B50)</f>
+        <v>0.83849014503532915</v>
       </c>
       <c r="E57">
-        <f xml:space="preserve"> (P23 - $B$37) / (E50 - $B$37)</f>
-        <v>0.84782608695652173</v>
+        <f xml:space="preserve"> (P23 - B50) / (E50 - B50)</f>
+        <v>0.86429725363489496</v>
       </c>
       <c r="F57">
-        <f xml:space="preserve"> (P16 - $B$37) / (F50 - $B$37)</f>
-        <v>0.89611166500498507</v>
+        <f xml:space="preserve"> (P16 - B50) / (F50 - B50)</f>
+        <v>0.89638851324476976</v>
       </c>
       <c r="G57">
-        <f xml:space="preserve"> (P17 - $B$37) / (G50 - $B$37)</f>
-        <v>0.76710250887358555</v>
+        <f xml:space="preserve"> (P17 - B50) / (G50 - B50)</f>
+        <v>0.76757493188010895</v>
       </c>
       <c r="H57">
-        <f xml:space="preserve"> (P18 - $B$37) / (H50 - $B$37)</f>
-        <v>0.74882538040432778</v>
+        <f xml:space="preserve"> (P18 - B50) / (H50 - B50)</f>
+        <v>0.74954869767042032</v>
       </c>
       <c r="I57">
-        <f xml:space="preserve"> (P19 - $B$37) / (I50 - $B$37)</f>
-        <v>0.66549140590568534</v>
+        <f xml:space="preserve"> (P19 - B50) / (I50 - B50)</f>
+        <v>0.67035830618892511</v>
       </c>
       <c r="J57">
-        <f xml:space="preserve"> (Q20 - $B$37) / (J50 - $B$37)</f>
-        <v>0.53239177156892847</v>
+        <f xml:space="preserve"> (Q20 - B50) / (J50 - B50)</f>
+        <v>0.53557633665379145</v>
       </c>
       <c r="K57">
-        <f xml:space="preserve"> (Q21 - $B$37) / (K50 - $B$37)</f>
-        <v>0.11652999568407424</v>
+        <f xml:space="preserve"> (Q21 - B50) / (K50 - B50)</f>
+        <v>0.14135906040268456</v>
       </c>
       <c r="L57">
-        <f xml:space="preserve"> (Q22 - $B$37) / (L50 - $B$37)</f>
-        <v>0.46495956873315364</v>
+        <f xml:space="preserve"> (Q22 - B50) / (L50 - B50)</f>
+        <v>0.47677100494233937</v>
       </c>
       <c r="M57">
-        <f xml:space="preserve"> (Q23 - $B$37) / (M50 - $B$37)</f>
-        <v>0.58575637248623036</v>
+        <f xml:space="preserve"> (Q23 - B50) / (M50 - B50)</f>
+        <v>0.5875263057202984</v>
       </c>
       <c r="N57">
-        <f xml:space="preserve"> (Q16 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32926607175377892</v>
+        <f xml:space="preserve"> (Q16 - B50) / (N50 - B50)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O57">
-        <f xml:space="preserve"> (Q17 - $B$37) / (O50 - $B$37)</f>
-        <v>0.30863517421842723</v>
+        <f xml:space="preserve"> (Q17 - B50) / (O50 - B50)</f>
+        <v>0.31181026801014461</v>
       </c>
       <c r="P57">
-        <f xml:space="preserve"> (Q18 - $B$37) / (P50 - $B$37)</f>
-        <v>0.37138805176387163</v>
+        <f xml:space="preserve"> (Q18 - B50) / (P50 - B50)</f>
+        <v>0.37324908311607974</v>
       </c>
       <c r="Q57">
-        <f xml:space="preserve"> (Q19 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.2857142857142857</v>
+        <f xml:space="preserve"> (Q19 - B50) / (Q50 - B50)</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
@@ -2702,60 +2457,60 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <f xml:space="preserve"> (T29 - $B$37) / (D50 - $B$37)</f>
-        <v>0.84874920776945162</v>
+        <f xml:space="preserve"> (T29 - B50) / (C50 - B50)</f>
+        <v>0.84912606917069544</v>
       </c>
       <c r="E58">
-        <f xml:space="preserve"> (T31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.75724637681159424</v>
+        <f xml:space="preserve"> (T31 - B50) / (E50 - B50)</f>
+        <v>0.78352180936995153</v>
       </c>
       <c r="F58">
-        <f xml:space="preserve"> (T24 - $B$37) / (F50 - $B$37)</f>
-        <v>0.92179461615154534</v>
+        <f xml:space="preserve"> (T24 - B50) / (F50 - B50)</f>
+        <v>0.92200302283032376</v>
       </c>
       <c r="G58">
-        <f xml:space="preserve"> (T25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75721263234535696</v>
+        <f xml:space="preserve"> (T25 - B50) / (G50 - B50)</f>
+        <v>0.75770511656070239</v>
       </c>
       <c r="H58">
-        <f xml:space="preserve"> (T26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.75037717142980298</v>
+        <f xml:space="preserve"> (T26 - B50) / (H50 - B50)</f>
+        <v>0.7510960199432648</v>
       </c>
       <c r="I58">
-        <f xml:space="preserve"> (T27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.65888056412516527</v>
+        <f xml:space="preserve"> (T27 - B50) / (I50 - B50)</f>
+        <v>0.66384364820846908</v>
       </c>
       <c r="J58">
-        <f xml:space="preserve"> (U28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.56207143588169073</v>
+        <f xml:space="preserve"> (U28 - B50) / (J50 - B50)</f>
+        <v>0.5650538727383615</v>
       </c>
       <c r="K58">
-        <f xml:space="preserve"> (U29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.63012516184721623</v>
+        <f xml:space="preserve"> (U29 - B50) / (K50 - B50)</f>
+        <v>0.64052013422818788</v>
       </c>
       <c r="L58">
-        <f xml:space="preserve"> (U30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.41105121293800539</v>
+        <f xml:space="preserve"> (U30 - B50) / (L50 - B50)</f>
+        <v>0.42405271828665569</v>
       </c>
       <c r="M58">
-        <f xml:space="preserve"> (U31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.53721019597796849</v>
+        <f xml:space="preserve"> (U31 - B50) / (M50 - B50)</f>
+        <v>0.53918755181429756</v>
       </c>
       <c r="N58">
-        <f xml:space="preserve"> (U24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32762702604261518</v>
+        <f xml:space="preserve"> (U24 - B50) / (N50 - B50)</f>
+        <v>0.33170422662684407</v>
       </c>
       <c r="O58">
-        <f xml:space="preserve"> (U25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.31028783914061425</v>
+        <f xml:space="preserve"> (U25 - B50) / (O50 - B50)</f>
+        <v>0.31345534306669409</v>
       </c>
       <c r="P58">
-        <f xml:space="preserve"> (U26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.35800390001772736</v>
+        <f xml:space="preserve"> (U26 - B50) / (P50 - B50)</f>
+        <v>0.35990455569793645</v>
       </c>
       <c r="Q58">
-        <f xml:space="preserve"> (U27 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.31556503198294245</v>
+        <f xml:space="preserve"> (U27 - B50) / (Q50 - B50)</f>
+        <v>0.40111940298507465</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
@@ -2763,124 +2518,124 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <f xml:space="preserve"> (X29 - $B$37) / (D50 - $B$37)</f>
-        <v>0.86328896842262237</v>
+        <f xml:space="preserve"> (X29 - B50) / (C50 - B50)</f>
+        <v>0.86362960208255857</v>
       </c>
       <c r="E59">
-        <f xml:space="preserve"> (X31 - $B$37) / (E50 - $B$37)</f>
-        <v>0.83695652173913049</v>
+        <f xml:space="preserve"> (X31 - B50) / (E50 - B50)</f>
+        <v>0.8546042003231018</v>
       </c>
       <c r="F59">
-        <f xml:space="preserve"> (X24 - $B$37) / (F50 - $B$37)</f>
-        <v>0.91988035892323028</v>
+        <f xml:space="preserve"> (X24 - B50) / (F50 - B50)</f>
+        <v>0.9200938668363694</v>
       </c>
       <c r="G59">
-        <f xml:space="preserve"> (X25 - $B$37) / (G50 - $B$37)</f>
-        <v>0.75775869914752902</v>
+        <f xml:space="preserve"> (X25 - B50) / (G50 - B50)</f>
+        <v>0.75825007568876779</v>
       </c>
       <c r="H59">
-        <f xml:space="preserve"> (X26 - $B$37) / (H50 - $B$37)</f>
-        <v>0.78322341480236213</v>
+        <f xml:space="preserve"> (X26 - B50) / (H50 - B50)</f>
+        <v>0.78384767471847328</v>
       </c>
       <c r="I59">
-        <f xml:space="preserve"> (X27 - $B$37) / (I50 - $B$37)</f>
-        <v>0.65623622741295728</v>
+        <f xml:space="preserve"> (X27 - B50) / (I50 - B50)</f>
+        <v>0.66123778501628661</v>
       </c>
       <c r="J59">
-        <f xml:space="preserve"> (Y28 - $B$37) / (J50 - $B$37)</f>
-        <v>0.55736362705966636</v>
+        <f xml:space="preserve"> (Y28 - B50) / (J50 - B50)</f>
+        <v>0.56037812563529177</v>
       </c>
       <c r="K59">
-        <f xml:space="preserve"> (Y29 - $B$37) / (K50 - $B$37)</f>
-        <v>0.63012516184721623</v>
+        <f xml:space="preserve"> (Y29 - B50) / (K50 - B50)</f>
+        <v>0.64052013422818788</v>
       </c>
       <c r="L59">
-        <f xml:space="preserve"> (Y30 - $B$37) / (L50 - $B$37)</f>
-        <v>0.41172506738544473</v>
+        <f xml:space="preserve"> (Y30 - B50) / (L50 - B50)</f>
+        <v>0.42471169686985172</v>
       </c>
       <c r="M59">
-        <f xml:space="preserve"> (Y31 - $B$37) / (M50 - $B$37)</f>
-        <v>0.5858844626617139</v>
+        <f xml:space="preserve"> (Y31 - B50) / (M50 - B50)</f>
+        <v>0.58765384860659398</v>
       </c>
       <c r="N59">
-        <f xml:space="preserve"> (Y24 - $B$37) / (N50 - $B$37)</f>
-        <v>0.32489528319067568</v>
+        <f xml:space="preserve"> (Y24 - B50) / (N50 - B50)</f>
+        <v>0.32898904878269525</v>
       </c>
       <c r="O59">
-        <f xml:space="preserve"> (Y25 - $B$37) / (O50 - $B$37)</f>
-        <v>0.31290455860074368</v>
+        <f xml:space="preserve"> (Y25 - B50) / (O50 - B50)</f>
+        <v>0.31606004523956405</v>
       </c>
       <c r="P59">
-        <f xml:space="preserve"> (Y26 - $B$37) / (P50 - $B$37)</f>
-        <v>0.37191987236305618</v>
+        <f xml:space="preserve"> (Y26 - B50) / (P50 - B50)</f>
+        <v>0.37377932923865492</v>
       </c>
       <c r="Q59">
-        <f xml:space="preserve"> (Y27 - $B$37) / (Q50 - $B$37)</f>
-        <v>0.28144989339019189</v>
+        <f xml:space="preserve"> (Y27 - B50) / (Q50 - B50)</f>
+        <v>0.3712686567164179</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <f xml:space="preserve"> (B29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.49863729699458653</v>
+        <f xml:space="preserve"> (B29 - B50) / (C50 - B50)</f>
+        <v>0.50059501673484563</v>
       </c>
       <c r="E61">
-        <f xml:space="preserve"> (B31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.42023346303501946</v>
+        <f xml:space="preserve"> (B31 - B50) / (E50 - B50)</f>
+        <v>0.51857835218093695</v>
       </c>
       <c r="F61">
-        <f xml:space="preserve"> (B24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.47641490593920999</v>
+        <f xml:space="preserve"> (B24 - B50) / (F50 - B50)</f>
+        <v>0.47860154323442844</v>
       </c>
       <c r="G61">
-        <f xml:space="preserve"> (B25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.40619589977220955</v>
+        <f xml:space="preserve"> (B25 - B50) / (G50 - B50)</f>
+        <v>0.40808356039963667</v>
       </c>
       <c r="H61">
-        <f xml:space="preserve"> (B26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.50982254652217085</v>
+        <f xml:space="preserve"> (B26 - B50) / (H50 - B50)</f>
+        <v>0.51203472878879053</v>
       </c>
       <c r="I61">
-        <f xml:space="preserve"> (B27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.50222222222222224</v>
+        <f xml:space="preserve"> (B27 - B50) / (I50 - B50)</f>
+        <v>0.51357220412595006</v>
       </c>
       <c r="J61">
-        <f xml:space="preserve"> (C28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.45474160073975134</v>
+        <f xml:space="preserve"> (C28 - B50) / (J50 - B50)</f>
+        <v>0.46056108965236836</v>
       </c>
       <c r="K61">
-        <f xml:space="preserve"> (C29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.363317244405441</v>
+        <f xml:space="preserve"> (C29 - B50) / (K50 - B50)</f>
+        <v>0.39135906040268459</v>
       </c>
       <c r="L61">
-        <f xml:space="preserve"> (C30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.17337883959044367</v>
+        <f xml:space="preserve"> (C30 - B50) / (L50 - B50)</f>
+        <v>0.20197693574958814</v>
       </c>
       <c r="M61">
-        <f xml:space="preserve"> (C31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.16024653312788906</v>
+        <f xml:space="preserve"> (C31 - B50) / (M50 - B50)</f>
+        <v>0.16586952362731969</v>
       </c>
       <c r="N61">
-        <f xml:space="preserve"> (C24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23209064327485379</v>
+        <f xml:space="preserve"> (C24 - B50) / (N50 - B50)</f>
+        <v>0.23938817992578515</v>
       </c>
       <c r="O61">
-        <f xml:space="preserve"> (C25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.40720795360397682</v>
+        <f xml:space="preserve"> (C25 - B50) / (O50 - B50)</f>
+        <v>0.41147439851943246</v>
       </c>
       <c r="P61">
-        <f xml:space="preserve"> (C26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.19621770398650448</v>
+        <f xml:space="preserve"> (C26 - B50) / (P50 - B50)</f>
+        <v>0.19994697538774248</v>
       </c>
       <c r="Q61">
-        <f xml:space="preserve"> (C27 - $B$40) / (Q50 - $B$40)</f>
-        <v>3.248259860788863E-2</v>
+        <f xml:space="preserve"> (C27 - B50) / (Q50 - B50)</f>
+        <v>0.22201492537313433</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
@@ -2888,60 +2643,60 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <f xml:space="preserve"> (F29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.48303154750793353</v>
+        <f xml:space="preserve"> (F29 - B50) / (C50 - B50)</f>
+        <v>0.48505020453700259</v>
       </c>
       <c r="E62">
-        <f xml:space="preserve"> (F31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.38910505836575876</v>
+        <f xml:space="preserve"> (F31 - B50) / (E50 - B50)</f>
+        <v>0.49273021001615508</v>
       </c>
       <c r="F62">
-        <f xml:space="preserve"> (F24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.49646523145744298</v>
+        <f xml:space="preserve"> (F24 - B50) / (F50 - B50)</f>
+        <v>0.49856813300453423</v>
       </c>
       <c r="G62">
-        <f xml:space="preserve"> (F25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.41670463173880029</v>
+        <f xml:space="preserve"> (F25 - B50) / (G50 - B50)</f>
+        <v>0.41855888586133816</v>
       </c>
       <c r="H62">
-        <f xml:space="preserve"> (F26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.56215189326885717</v>
+        <f xml:space="preserve"> (F26 - B50) / (H50 - B50)</f>
+        <v>0.56412791197455514</v>
       </c>
       <c r="I62">
-        <f xml:space="preserve"> (F27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.47822222222222222</v>
+        <f xml:space="preserve"> (F27 - B50) / (I50 - B50)</f>
+        <v>0.49011943539630837</v>
       </c>
       <c r="J62">
-        <f xml:space="preserve"> (G28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.50549676358779405</v>
+        <f xml:space="preserve"> (G28 - B50) / (J50 - B50)</f>
+        <v>0.51077454767229113</v>
       </c>
       <c r="K62">
-        <f xml:space="preserve"> (G29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.35629662132514262</v>
+        <f xml:space="preserve"> (G29 - B50) / (K50 - B50)</f>
+        <v>0.38464765100671139</v>
       </c>
       <c r="L62">
-        <f xml:space="preserve"> (G30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.17201365187713311</v>
+        <f xml:space="preserve"> (G30 - B50) / (L50 - B50)</f>
+        <v>0.20065897858319603</v>
       </c>
       <c r="M62">
-        <f xml:space="preserve"> (G31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.18772470467385721</v>
+        <f xml:space="preserve"> (G31 - B50) / (M50 - B50)</f>
+        <v>0.19316370129456029</v>
       </c>
       <c r="N62">
-        <f xml:space="preserve"> (G24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.23739035087719298</v>
+        <f xml:space="preserve"> (G24 -B50) / (N50 - B50)</f>
+        <v>0.24463752375780615</v>
       </c>
       <c r="O62">
-        <f xml:space="preserve"> (G25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.3895332780999724</v>
+        <f xml:space="preserve"> (G25 - B50) / (O50 - B50)</f>
+        <v>0.39392693124957162</v>
       </c>
       <c r="P62">
-        <f xml:space="preserve"> (G26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.18769422001243008</v>
+        <f xml:space="preserve"> (G26 - B50) / (P50 - B50)</f>
+        <v>0.19146303742653881</v>
       </c>
       <c r="Q62">
-        <f xml:space="preserve"> (G27 - $B$40) / (Q50 - $B$40)</f>
-        <v>6.4965197215777259E-2</v>
+        <f xml:space="preserve"> (G27 - B50) / (Q50 - B50)</f>
+        <v>0.24813432835820895</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
@@ -2949,60 +2704,60 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <f xml:space="preserve"> (H21 - $B$40) / (D50 - $B$40)</f>
-        <v>0.57039387717005785</v>
+        <f xml:space="preserve"> (H21 - B50) / (C50 - B50)</f>
+        <v>0.57207140200818152</v>
       </c>
       <c r="E63">
-        <f xml:space="preserve"> (H23 - $B$40) / (E50 - $B$40)</f>
-        <v>0.44747081712062259</v>
+        <f xml:space="preserve"> (H23 - B50) / (E50 - B50)</f>
+        <v>0.54119547657512113</v>
       </c>
       <c r="F63">
-        <f xml:space="preserve"> (H16 - $B$40) / (F50 - $B$40)</f>
-        <v>0.49838239405679596</v>
+        <f xml:space="preserve"> (H16 - B50) / (F50 - B50)</f>
+        <v>0.50047728899848853</v>
       </c>
       <c r="G63">
-        <f xml:space="preserve"> (H17 - $B$40) / (G50 - $B$40)</f>
-        <v>0.42909643128321945</v>
+        <f xml:space="preserve"> (H17 - B50) / (G50 - B50)</f>
+        <v>0.4309112927641538</v>
       </c>
       <c r="H63">
-        <f xml:space="preserve"> (H18 - $B$40) / (H50 - $B$40)</f>
-        <v>0.50464142308190496</v>
+        <f xml:space="preserve"> (H18 - B50) / (H50 - B50)</f>
+        <v>0.5068769878793089</v>
       </c>
       <c r="I63">
-        <f xml:space="preserve"> (H19 - $B$40) / (I50 - $B$40)</f>
-        <v>0.53022222222222226</v>
+        <f xml:space="preserve"> (H19 - B50) / (I50 - B50)</f>
+        <v>0.54093376764386536</v>
       </c>
       <c r="J63">
-        <f xml:space="preserve"> (I20 - $B$40) / (J50 - $B$40)</f>
-        <v>0.45987876297133462</v>
+        <f xml:space="preserve"> (I20 - B50) / (J50 - B50)</f>
+        <v>0.46564342346005283</v>
       </c>
       <c r="K63">
-        <f xml:space="preserve"> (I21 - $B$40) / (K50 - $B$40)</f>
-        <v>0.38525669153137343</v>
+        <f xml:space="preserve"> (I21 - B50) / (K50 - B50)</f>
+        <v>0.41233221476510068</v>
       </c>
       <c r="L63">
-        <f xml:space="preserve"> (I22 - $B$40) / (L50 - $B$40)</f>
-        <v>0.17406143344709898</v>
+        <f xml:space="preserve"> (I22 - B50) / (L50 - B50)</f>
+        <v>0.20263591433278419</v>
       </c>
       <c r="M63">
-        <f xml:space="preserve"> (I23 - $B$40) / (M50 - $B$40)</f>
-        <v>0.19530046224961478</v>
+        <f xml:space="preserve"> (I23 - B50) / (M50 - B50)</f>
+        <v>0.20068873158599579</v>
       </c>
       <c r="N63">
-        <f xml:space="preserve"> (I16 - $B$40) / (N50 - $B$40)</f>
-        <v>0.25950292397660818</v>
+        <f xml:space="preserve"> (I16 - B50) / (N50 - B50)</f>
+        <v>0.26653995836727307</v>
       </c>
       <c r="O63">
-        <f xml:space="preserve"> (I17 - $B$40) / (O50 - $B$40)</f>
-        <v>0.42294946147473073</v>
+        <f xml:space="preserve"> (I17 - B50) / (O50 - B50)</f>
+        <v>0.42710261155665225</v>
       </c>
       <c r="P63">
-        <f xml:space="preserve"> (I18 - $B$40) / (P50 - $B$40)</f>
-        <v>0.1920447482908639</v>
+        <f xml:space="preserve"> (I18 - B50) / (P50 - B50)</f>
+        <v>0.19579338076090319</v>
       </c>
       <c r="Q63">
-        <f xml:space="preserve"> (I19 - $B$40) / (Q50 - $B$40)</f>
-        <v>6.0324825986078884E-2</v>
+        <f xml:space="preserve"> (I19 - B50) / (Q50 - B50)</f>
+        <v>0.24440298507462688</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -3010,60 +2765,60 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <f xml:space="preserve"> (N29 - $B$40) / (D50 - $B$40)</f>
-        <v>0.52282994213179013</v>
+        <f xml:space="preserve"> (N29 - B50) / (C50 - B50)</f>
+        <v>0.52469319449609519</v>
       </c>
       <c r="E64">
-        <f xml:space="preserve"> (N31 - $B$40) / (E50 - $B$40)</f>
-        <v>0.35019455252918286</v>
+        <f xml:space="preserve"> (N31 - B50) / (E50 - B50)</f>
+        <v>0.4604200323101777</v>
       </c>
       <c r="F64">
-        <f xml:space="preserve"> (N24 - $B$40) / (F50 - $B$40)</f>
-        <v>0.4823261572872149</v>
+        <f xml:space="preserve"> (N24 - B50) / (F50 - B50)</f>
+        <v>0.48448810754912097</v>
       </c>
       <c r="G64">
-        <f xml:space="preserve"> (N25 - $B$40) / (G50 - $B$40)</f>
-        <v>0.40048595292331057</v>
+        <f xml:space="preserve"> (N25 - B50) / (G50 - B50)</f>
+        <v>0.40239176506206481</v>
       </c>
       <c r="H64">
-        <f xml:space="preserve"> (N26 - $B$40) / (H50 - $B$40)</f>
-        <v>0.52614308535900867</v>
+        <f xml:space="preserve"> (N26 - B50) / (H50 - B50)</f>
+        <v>0.5282816126536577</v>
       </c>
       <c r="I64">
-        <f xml:space="preserve"> (N27 - $B$40) / (I50 - $B$40)</f>
-        <v>0.45911111111111114</v>
+        <f xml:space="preserve"> (N27 - B50) / (I50 - B50)</f>
+        <v>0.47144408251900111</v>
       </c>
       <c r="J64">
-        <f xml:space="preserve"> (O28 - $B$40) / (J50 - $B$40)</f>
-        <v>0.50611322305558415</v>
+        <f xml:space="preserve"> (O28 - B50) / (J50 - B50)</f>
+        <v>0.51138442772921322</v>
       </c>
       <c r="K64">
-        <f xml:space="preserve"> (O29 - $B$40) / (K50 - $B$40)</f>
-        <v>0.36682755594559019</v>
+        <f xml:space="preserve"> (O29 - B50) / (K50 - B50)</f>
+        <v>0.39471476510067116</v>
       </c>
       <c r="L64">
-        <f xml:space="preserve"> (O30 - $B$40) / (L50 - $B$40)</f>
-        <v>0.17201365187713311</v>
+        <f xml:space="preserve"> (O30 - B50) / (L50 - B50)</f>
+        <v>0.20065897858319603</v>
       </c>
       <c r="M64">
-        <f xml:space="preserve"> (O31 - $B$40) / (M50 - $B$40)</f>
-        <v>0.15215716486902928</v>
+        <f xml:space="preserve"> (O31 - B50) / (M50 - B50)</f>
+        <v>0.15783432179070211</v>
       </c>
       <c r="N64">
-        <f xml:space="preserve"> (O24 - $B$40) / (N50 - $B$40)</f>
-        <v>0.21418128654970761</v>
+        <f xml:space="preserve"> (O24 -B50) / (N50 - B50)</f>
+        <v>0.22164901801067971</v>
       </c>
       <c r="O64">
-        <f xml:space="preserve"> (O25 - $B$40) / (O50 - $B$40)</f>
-        <v>0.3771057718862193</v>
+        <f xml:space="preserve"> (O25 - B50) / (O50 - B50)</f>
+        <v>0.38158886832545069</v>
       </c>
       <c r="P64">
-        <f xml:space="preserve"> (O26 - $B$40) / (P50 - $B$40)</f>
-        <v>0.18085767557489124</v>
+        <f xml:space="preserve"> (O26 - B50) / (P50 - B50)</f>
+        <v>0.18465821218682338</v>
       </c>
       <c r="Q64">
-        <f xml:space="preserve"> (O27 - $B$40) / (Q50 - $B$40)</f>
-        <v>3.7122969837587005E-2</v>
+        <f xml:space="preserve"> (O27 - B50) / (Q50 - B50)</f>
+        <v>0.22574626865671643</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -3071,60 +2826,60 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <f xml:space="preserve"> (R21 - $B$40) / (D50 - $B$40)</f>
-        <v>0.54142243793167821</v>
+        <f xml:space="preserve"> (R21 - B50) / (C50 - B50)</f>
+        <v>0.54321309036816656</v>
       </c>
       <c r="E65">
-        <f xml:space="preserve"> (R23 - $B$40) / (E50 - $B$40)</f>
-        <v>0.48638132295719844</v>
+        <f xml:space="preserve"> (R23 - B50) / (E50 - B50)</f>
+        <v>0.57350565428109856</v>
       </c>
       <c r="F65">
-        <f xml:space="preserve"> (R16 - $B$40) / (F50 - $B$40)</f>
-        <v>0.47457762511483004</v>
+        <f xml:space="preserve"> (R16 - B50) / (F50 - B50)</f>
+        <v>0.47677193540688889</v>
       </c>
       <c r="G65">
-        <f xml:space="preserve"> (R17 - $B$40) / (G50 - $B$40)</f>
-        <v>0.41196659073652242</v>
+        <f xml:space="preserve"> (R17 - B50) / (G50 - B50)</f>
+        <v>0.41383590675143811</v>
       </c>
       <c r="H65">
-        <f xml:space="preserve"> (R18 - $B$40) / (H50 - $B$40)</f>
-        <v>0.48676654721298734</v>
+        <f xml:space="preserve"> (R18 - B50) / (H50 - B50)</f>
+        <v>0.48908278174159719</v>
       </c>
       <c r="I65">
-        <f xml:space="preserve"> (R19 - $B$40) / (I50 - $B$40)</f>
-        <v>0.52800000000000002</v>
+        <f xml:space="preserve"> (R19 - B50) / (I50 - B50)</f>
+        <v>0.53876221498371335</v>
       </c>
       <c r="J65">
-        <f xml:space="preserve"> (S20 - $B$40) / (J50 - $B$40)</f>
-        <v>0.53385389910613379</v>
+        <f xml:space="preserve"> (S20 - B50) / (J50 - B50)</f>
+        <v>0.5388290302907095</v>
       </c>
       <c r="K65">
-        <f xml:space="preserve"> (S21 - $B$40) / (K50 - $B$40)</f>
-        <v>0.42035980693286529</v>
+        <f xml:space="preserve"> (S21 - B50) / (K50 - B50)</f>
+        <v>0.44588926174496646</v>
       </c>
       <c r="L65">
-        <f xml:space="preserve"> (S22 - $B$40) / (L50 - $B$40)</f>
-        <v>0.178839590443686</v>
+        <f xml:space="preserve"> (S22 - B50) / (L50 - B50)</f>
+        <v>0.20724876441515649</v>
       </c>
       <c r="M65">
-        <f xml:space="preserve"> (S23 - $B$40) / (M50 - $B$40)</f>
-        <v>0.16268618387262454</v>
+        <f xml:space="preserve"> (S23 - B50) / (M50 - B50)</f>
+        <v>0.16829283846693452</v>
       </c>
       <c r="N65">
-        <f xml:space="preserve"> (S16 - $B$40) / (N50 - $B$40)</f>
-        <v>0.27430555555555558</v>
+        <f xml:space="preserve"> (S16 - B50) / (N50 - B50)</f>
+        <v>0.28120191872567651</v>
       </c>
       <c r="O65">
-        <f xml:space="preserve"> (S17 - $B$40) / (O50 - $B$40)</f>
-        <v>0.41673570836785417</v>
+        <f xml:space="preserve"> (S17 - B50) / (O50 - B50)</f>
+        <v>0.42093358009459181</v>
       </c>
       <c r="P65">
-        <f xml:space="preserve"> (S18 - $B$40) / (P50 - $B$40)</f>
-        <v>0.2103347243185652</v>
+        <f xml:space="preserve"> (S18 - B50) / (P50 - B50)</f>
+        <v>0.21399849763598602</v>
       </c>
       <c r="Q65">
-        <f xml:space="preserve"> (S19 - $B$40) / (Q50 - $B$40)</f>
-        <v>8.3526682134570762E-2</v>
+        <f xml:space="preserve"> (S19 - B50) / (Q50 - B50)</f>
+        <v>0.26305970149253732</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
@@ -3135,60 +2890,60 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <f xml:space="preserve"> (B21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.56899832120872973</v>
+        <f xml:space="preserve"> (B21 - B50) / (C50 - B50)</f>
+        <v>0.57036072889550016</v>
       </c>
       <c r="E67">
-        <f xml:space="preserve"> (B23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.76029962546816476</v>
+        <f xml:space="preserve"> (B23 - B50) / (E50 - B50)</f>
+        <v>0.79321486268174479</v>
       </c>
       <c r="F67">
-        <f xml:space="preserve"> (B16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.6633675220497266</v>
+        <f xml:space="preserve"> (B16 - B50) / (F50 - B50)</f>
+        <v>0.66450560814573223</v>
       </c>
       <c r="G67">
-        <f xml:space="preserve"> (B17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.99189558354833818</v>
+        <f xml:space="preserve"> (B17 - B50) / (G50 - B50)</f>
+        <v>0.99191643960036335</v>
       </c>
       <c r="H67">
-        <f xml:space="preserve"> (B18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.91367930632845862</v>
+        <f xml:space="preserve"> (B18 - B50) / (H50 - B50)</f>
+        <v>0.91399467033439352</v>
       </c>
       <c r="I67">
-        <f xml:space="preserve"> (B19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8584070796460177</v>
+        <f xml:space="preserve"> (B19 - B50) / (I50 - B50)</f>
+        <v>0.86102062975027149</v>
       </c>
       <c r="J67">
-        <f xml:space="preserve"> (C20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.68102122423869582</v>
+        <f xml:space="preserve"> (C20 - B50) / (J50 - B50)</f>
+        <v>0.68377719048587116</v>
       </c>
       <c r="K67">
-        <f xml:space="preserve"> (C21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58895171813832103</v>
+        <f xml:space="preserve"> (C21 - B50) / (K50 - B50)</f>
+        <v>0.60360738255033553</v>
       </c>
       <c r="L67">
-        <f xml:space="preserve"> (C22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.32610169491525426</v>
+        <f xml:space="preserve"> (C22 - B50) / (L50 - B50)</f>
+        <v>0.34497528830313012</v>
       </c>
       <c r="M67">
-        <f xml:space="preserve"> (C23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.6451654270325724</v>
+        <f xml:space="preserve"> (C23 - B50) / (M50 - B50)</f>
+        <v>0.64708883362030478</v>
       </c>
       <c r="N67">
-        <f xml:space="preserve"> (C16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34439985406785845</v>
+        <f xml:space="preserve"> (C16 - B50) / (N50 - B50)</f>
+        <v>0.34944338854194951</v>
       </c>
       <c r="O67">
-        <f xml:space="preserve"> (C17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30005515719801434</v>
+        <f xml:space="preserve"> (C17 - B50) / (O50 - B50)</f>
+        <v>0.3041332510795805</v>
       </c>
       <c r="P67">
-        <f xml:space="preserve"> (C18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.41390934090304266</v>
+        <f xml:space="preserve"> (C18 - B50) / (P50 - B50)</f>
+        <v>0.41611064469091069</v>
       </c>
       <c r="Q67">
-        <f xml:space="preserve"> (C19 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.52771618625277161</v>
+        <f xml:space="preserve"> (C19 - B50) / (Q50 - B50)</f>
+        <v>0.60261194029850751</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
@@ -3196,60 +2951,60 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <f xml:space="preserve"> (D21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.4841634023503078</v>
+        <f xml:space="preserve"> (D21 - B50) / (C50 - B50)</f>
+        <v>0.48579397545555969</v>
       </c>
       <c r="E68">
-        <f xml:space="preserve"> (D23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.67041198501872656</v>
+        <f xml:space="preserve"> (D23 - B50) / (E50 - B50)</f>
+        <v>0.71567043618739901</v>
       </c>
       <c r="F68">
-        <f xml:space="preserve"> (D16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.6580197150496867</v>
+        <f xml:space="preserve"> (D16 - B50) / (F50 - B50)</f>
+        <v>0.65917588099594304</v>
       </c>
       <c r="G68">
-        <f xml:space="preserve"> (D17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.98163606010016691</v>
+        <f xml:space="preserve"> (D17 - B50) / (G50 - B50)</f>
+        <v>0.98168331819557975</v>
       </c>
       <c r="H68">
-        <f xml:space="preserve"> (D18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.89452568914196973</v>
+        <f xml:space="preserve"> (D18 - B50) / (H50 - B50)</f>
+        <v>0.89491102896931141</v>
       </c>
       <c r="I68">
-        <f xml:space="preserve"> (D19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.89424778761061952</v>
+        <f xml:space="preserve"> (D19 - B50) / (I50 - B50)</f>
+        <v>0.89619978284473401</v>
       </c>
       <c r="J68">
-        <f xml:space="preserve"> (E20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.70214293038039577</v>
+        <f xml:space="preserve"> (E20 - B50) / (J50 - B50)</f>
+        <v>0.70471640577353123</v>
       </c>
       <c r="K68">
-        <f xml:space="preserve"> (E21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58808177468464551</v>
+        <f xml:space="preserve"> (E21 - B50) / (K50 - B50)</f>
+        <v>0.60276845637583898</v>
       </c>
       <c r="L68">
-        <f xml:space="preserve"> (E22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.35322033898305083</v>
+        <f xml:space="preserve"> (E22 - B50) / (L50 - B50)</f>
+        <v>0.37133443163097202</v>
       </c>
       <c r="M68">
-        <f xml:space="preserve"> (E23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.67158245704026676</v>
+        <f xml:space="preserve"> (E23 - B50) / (M50 - B50)</f>
+        <v>0.67336266819718127</v>
       </c>
       <c r="N68">
-        <f xml:space="preserve"> (E16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34330536300620212</v>
+        <f xml:space="preserve"> (E16 - B50) / (N50 - B50)</f>
+        <v>0.34835731740428999</v>
       </c>
       <c r="O68">
-        <f xml:space="preserve"> (E17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.26930501930501932</v>
+        <f xml:space="preserve"> (E17 - B50) / (O50 - B50)</f>
+        <v>0.27356227294536978</v>
       </c>
       <c r="P68">
-        <f xml:space="preserve"> (E18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.39634524971170054</v>
+        <f xml:space="preserve"> (E18 - B50) / (P50 - B50)</f>
+        <v>0.39861252264592817</v>
       </c>
       <c r="Q68">
-        <f xml:space="preserve"> (E19 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.56319290465631933</v>
+        <f xml:space="preserve"> (E19 - B50) / (Q50 - B50)</f>
+        <v>0.6324626865671642</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
@@ -3257,60 +3012,60 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <f xml:space="preserve"> (F21 - $B$43) / (D50 - $B$43)</f>
-        <v>0.53325872038798727</v>
+        <f xml:space="preserve"> (F21 - B50) / (C50 - B50)</f>
+        <v>0.53473410189661585</v>
       </c>
       <c r="E69">
-        <f xml:space="preserve"> (F23 - $B$43) / (E50 - $B$43)</f>
-        <v>0.76779026217228463</v>
+        <f xml:space="preserve"> (F23 - B50) / (E50 - B50)</f>
+        <v>0.79967689822294019</v>
       </c>
       <c r="F69">
-        <f xml:space="preserve"> (F16 - $B$43) / (F50 - $B$43)</f>
-        <v>0.61938779582551784</v>
+        <f xml:space="preserve"> (F16 - B50) / (F50 - B50)</f>
+        <v>0.62067456845119717</v>
       </c>
       <c r="G69">
-        <f xml:space="preserve"> (F17 - $B$43) / (G50 - $B$43)</f>
-        <v>0.98206101077553498</v>
+        <f xml:space="preserve"> (F17 - B50) / (G50 - B50)</f>
+        <v>0.98210717529518621</v>
       </c>
       <c r="H69">
-        <f xml:space="preserve"> (F18 - $B$43) / (H50 - $B$43)</f>
-        <v>0.90082395064923859</v>
+        <f xml:space="preserve"> (F18 - B50) / (H50 - B50)</f>
+        <v>0.90118628040918081</v>
       </c>
       <c r="I69">
-        <f xml:space="preserve"> (F19 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8252212389380531</v>
+        <f xml:space="preserve"> (F19 - B50) / (I50 - B50)</f>
+        <v>0.82844733984799135</v>
       </c>
       <c r="J69">
-        <f xml:space="preserve"> (G20 - $B$43) / (J50 - $B$43)</f>
-        <v>0.65600328104173078</v>
+        <f xml:space="preserve"> (G20 - B50) / (J50 - B50)</f>
+        <v>0.65897540150437084</v>
       </c>
       <c r="K69">
-        <f xml:space="preserve"> (G21 - $B$43) / (K50 - $B$43)</f>
-        <v>0.52457590256633324</v>
+        <f xml:space="preserve"> (G21 - B50) / (K50 - B50)</f>
+        <v>0.54152684563758391</v>
       </c>
       <c r="L69">
-        <f xml:space="preserve"> (G22 - $B$43) / (L50 - $B$43)</f>
-        <v>0.31457627118644066</v>
+        <f xml:space="preserve"> (G22 - B50) / (L50 - B50)</f>
+        <v>0.33377265238879739</v>
       </c>
       <c r="M69">
-        <f xml:space="preserve"> (G23 - $B$43) / (M50 - $B$43)</f>
-        <v>0.57796870992562199</v>
+        <f xml:space="preserve"> (G23 - B50) / (M50 - B50)</f>
+        <v>0.58025636120145396</v>
       </c>
       <c r="N69">
-        <f xml:space="preserve"> (G16 - $B$43) / (N50 - $B$43)</f>
-        <v>0.34786574242977014</v>
+        <f xml:space="preserve"> (G16 - B50) / (N50 - B50)</f>
+        <v>0.35288261381120462</v>
       </c>
       <c r="O69">
-        <f xml:space="preserve"> (G17 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30694980694980695</v>
+        <f xml:space="preserve"> (G17 - B50) / (O50 - B50)</f>
+        <v>0.3109877304818699</v>
       </c>
       <c r="P69">
-        <f xml:space="preserve"> (G18 - $B$43) / (P50 - $B$43)</f>
-        <v>0.44575534462875899</v>
+        <f xml:space="preserve"> (G18 - B50) / (P50 - B50)</f>
+        <v>0.44783703769166189</v>
       </c>
       <c r="Q69">
-        <f xml:space="preserve"> (G19 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.53658536585365857</v>
+        <f xml:space="preserve"> (G19 - B50) / (Q50 - B50)</f>
+        <v>0.6100746268656716</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
@@ -3318,60 +3073,60 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <f xml:space="preserve"> (H29 - $B$43) / (D50 - $B$43)</f>
-        <v>0.52296213393023694</v>
+        <f xml:space="preserve"> (H29 - B50) / (C50 - B50)</f>
+        <v>0.52447006322052803</v>
       </c>
       <c r="E70">
-        <f xml:space="preserve"> (H31 - $B$43) / (E50 - $B$43)</f>
-        <v>0.61423220973782766</v>
+        <f xml:space="preserve"> (H31 - B50) / (E50 - B50)</f>
+        <v>0.6672051696284329</v>
       </c>
       <c r="F70">
-        <f xml:space="preserve"> (H24 - $B$43) / (F50 - $B$43)</f>
-        <v>0.63750648521371278</v>
+        <f xml:space="preserve"> (H24 - B50) / (F50 - B50)</f>
+        <v>0.63873200222734861</v>
       </c>
       <c r="G70">
-        <f xml:space="preserve"> (H25 - $B$43) / (G50 - $B$43)</f>
-        <v>0.9735012900288359</v>
+        <f xml:space="preserve"> (H25 - B50) / (G50 - B50)</f>
+        <v>0.97356948228882834</v>
       </c>
       <c r="H70">
-        <f xml:space="preserve"> (H26 - $B$43) / (H50 - $B$43)</f>
-        <v>0.89107458694620589</v>
+        <f xml:space="preserve"> (H26 - B50) / (H50 - B50)</f>
+        <v>0.89147253502965706</v>
       </c>
       <c r="I70">
-        <f xml:space="preserve"> (H27 - $B$43) / (I50 - $B$43)</f>
-        <v>0.84159292035398225</v>
+        <f xml:space="preserve"> (H27 - B50) / (I50 - B50)</f>
+        <v>0.84451682953311613</v>
       </c>
       <c r="J70">
-        <f xml:space="preserve"> (I28 - $B$43) / (J50 - $B$43)</f>
-        <v>0.73638880344509383</v>
+        <f xml:space="preserve"> (I28 - B50) / (J50 - B50)</f>
+        <v>0.7386663956088636</v>
       </c>
       <c r="K70">
-        <f xml:space="preserve"> (I29 - $B$43) / (K50 - $B$43)</f>
-        <v>0.58460200086994341</v>
+        <f xml:space="preserve"> (I29 - B50) / (K50 - B50)</f>
+        <v>0.59941275167785235</v>
       </c>
       <c r="L70">
-        <f xml:space="preserve"> (I30 - $B$43) / (L50 - $B$43)</f>
-        <v>0.29627118644067796</v>
+        <f xml:space="preserve"> (I30 - B50) / (L50 - B50)</f>
+        <v>0.31598023064250413</v>
       </c>
       <c r="M70">
-        <f xml:space="preserve"> (I31 - $B$43) / (M50 - $B$43)</f>
-        <v>0.55668120030777124</v>
+        <f xml:space="preserve"> (I31 - B50) / (M50 - B50)</f>
+        <v>0.55908424207639817</v>
       </c>
       <c r="N70">
-        <f xml:space="preserve"> (I24 - $B$43) / (N50 - $B$43)</f>
-        <v>0.32725282743524259</v>
+        <f xml:space="preserve"> (I24 - B50) / (N50 - B50)</f>
+        <v>0.33242827405195041</v>
       </c>
       <c r="O70">
-        <f xml:space="preserve"> (I25 - $B$43) / (O50 - $B$43)</f>
-        <v>0.26682294539437396</v>
+        <f xml:space="preserve"> (I25 - B50) / (O50 - B50)</f>
+        <v>0.27109466036054564</v>
       </c>
       <c r="P70">
-        <f xml:space="preserve"> (I26 - $B$43) / (P50 - $B$43)</f>
-        <v>0.39714361749312516</v>
+        <f xml:space="preserve"> (I26 - B50) / (P50 - B50)</f>
+        <v>0.39940789182979097</v>
       </c>
       <c r="Q70">
-        <f xml:space="preserve"> (I27 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.53658536585365857</v>
+        <f xml:space="preserve"> (I27 - B50) / (Q50 - B50)</f>
+        <v>0.6100746268656716</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
@@ -3379,60 +3134,60 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <f xml:space="preserve"> (J29 - $B$43) / (D50 - $B$43)</f>
-        <v>0.54251072561089353</v>
+        <f xml:space="preserve"> (J29 - B50) / (C50 - B50)</f>
+        <v>0.54395686128672371</v>
       </c>
       <c r="E71">
-        <f xml:space="preserve"> (J31 - $B$43) / (E50 - $B$43)</f>
-        <v>0.8089887640449438</v>
+        <f xml:space="preserve"> (J31 - B50) / (E50 - B50)</f>
+        <v>0.83521809369951538</v>
       </c>
       <c r="F71">
-        <f xml:space="preserve"> (J24 - $B$43) / (F50 - $B$43)</f>
-        <v>0.61707307339266471</v>
+        <f xml:space="preserve"> (J24 - B50) / (F50 - B50)</f>
+        <v>0.61836767162516904</v>
       </c>
       <c r="G71">
-        <f xml:space="preserve"> (J25 - $B$43) / (G50 - $B$43)</f>
-        <v>0.9840643496736986</v>
+        <f xml:space="preserve"> (J25 - B50) / (G50 - B50)</f>
+        <v>0.98410535876475935</v>
       </c>
       <c r="H71">
-        <f xml:space="preserve"> (J26 - $B$43) / (H50 - $B$43)</f>
-        <v>0.9053966610586256</v>
+        <f xml:space="preserve"> (J26 - B50) / (H50 - B50)</f>
+        <v>0.90574228487922293</v>
       </c>
       <c r="I71">
-        <f xml:space="preserve"> (J27 - $B$43) / (I50 - $B$43)</f>
-        <v>0.8283185840707965</v>
+        <f xml:space="preserve"> (J27 - B50) / (I50 - B50)</f>
+        <v>0.83148751357220407</v>
       </c>
       <c r="J71">
-        <f xml:space="preserve"> (K28 - $B$43) / (J50 - $B$43)</f>
-        <v>0.75730544447862191</v>
+        <f xml:space="preserve"> (K28 - B50) / (J50 - B50)</f>
+        <v>0.75940231754421628</v>
       </c>
       <c r="K71">
-        <f xml:space="preserve"> (K29 - $B$43) / (K50 - $B$43)</f>
-        <v>0.5915615484993475</v>
+        <f xml:space="preserve"> (K29 - B50) / (K50 - B50)</f>
+        <v>0.6061241610738255</v>
       </c>
       <c r="L71">
-        <f xml:space="preserve"> (K30 - $B$43) / (L50 - $B$43)</f>
-        <v>0.25559322033898307</v>
+        <f xml:space="preserve"> (K30 - B50) / (L50 - B50)</f>
+        <v>0.27644151565074138</v>
       </c>
       <c r="M71">
-        <f xml:space="preserve"> (K31 - $B$43) / (M50 - $B$43)</f>
-        <v>0.59245960502692996</v>
+        <f xml:space="preserve"> (K31 - B50) / (M50 - B50)</f>
+        <v>0.59466870735284738</v>
       </c>
       <c r="N71">
-        <f xml:space="preserve"> (K24 - $B$43) / (N50 - $B$43)</f>
-        <v>0.35224370667639548</v>
+        <f xml:space="preserve"> (K24 - B50) / (N50 - B50)</f>
+        <v>0.35722689836184268</v>
       </c>
       <c r="O71">
-        <f xml:space="preserve"> (K25 - $B$43) / (O50 - $B$43)</f>
-        <v>0.30060672917815773</v>
+        <f xml:space="preserve"> (K25 - B50) / (O50 - B50)</f>
+        <v>0.30468160943176364</v>
       </c>
       <c r="P71">
-        <f xml:space="preserve"> (K26 - $B$43) / (P50 - $B$43)</f>
-        <v>0.41053845471480527</v>
+        <f xml:space="preserve"> (K26 - B50) / (P50 - B50)</f>
+        <v>0.41275241924793427</v>
       </c>
       <c r="Q71">
-        <f xml:space="preserve"> (K27 - $B$43) / (Q50 - $B$43)</f>
-        <v>0.51884700665188466</v>
+        <f xml:space="preserve"> (K27 - B50) / (Q50 - B50)</f>
+        <v>0.59514925373134331</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
@@ -3443,60 +3198,60 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <f xml:space="preserve"> (J21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.97839471622075447</v>
+        <f xml:space="preserve"> (J21 - B50) / (C50 - B50)</f>
+        <v>0.97846783190777242</v>
       </c>
       <c r="E73">
-        <f xml:space="preserve"> (J23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5795454545454546</v>
+        <f xml:space="preserve"> (J23 - B50) / (E50 - B50)</f>
+        <v>1.494345718901454</v>
       </c>
       <c r="F73">
-        <f xml:space="preserve"> (J16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.3977086743044189</v>
+        <f xml:space="preserve"> (J16 - B50) / (F50 - B50)</f>
+        <v>1.3962691909951475</v>
       </c>
       <c r="G73">
-        <f xml:space="preserve"> (J17 - $B$46) / (G50 - $B$46)</f>
-        <v>1.0098667233370777</v>
+        <f xml:space="preserve"> (J17 - B50) / (G50 - B50)</f>
+        <v>1.0098395398122919</v>
       </c>
       <c r="H73">
-        <f xml:space="preserve"> (J18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.182740021574973</v>
+        <f xml:space="preserve"> (J18 - B50) / (H50 - B50)</f>
+        <v>1.1820252729304566</v>
       </c>
       <c r="I73">
-        <f xml:space="preserve"> (J19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.181214000886132</v>
+        <f xml:space="preserve"> (J19 - B50) / (I50 - B50)</f>
+        <v>1.1776330076004342</v>
       </c>
       <c r="J73">
-        <f xml:space="preserve"> (K20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.1059813275879757</v>
+        <f xml:space="preserve"> (K20 - B50) / (J50 - B50)</f>
+        <v>1.1050010164667616</v>
       </c>
       <c r="K73">
-        <f xml:space="preserve"> (K21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.89315307457479287</v>
+        <f xml:space="preserve"> (K21 - B50) / (K50 - B50)</f>
+        <v>0.89723154362416102</v>
       </c>
       <c r="L73">
-        <f xml:space="preserve"> (K22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.54483695652173914</v>
+        <f xml:space="preserve"> (K22 - B50) / (L50 - B50)</f>
+        <v>0.55848434925864909</v>
       </c>
       <c r="M73">
-        <f xml:space="preserve"> (K23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.81616420782552923</v>
+        <f xml:space="preserve"> (K23 - B50) / (M50 - B50)</f>
+        <v>0.8172310439385243</v>
       </c>
       <c r="N73">
-        <f xml:space="preserve"> (K16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.89249863113706884</v>
+        <f xml:space="preserve"> (K16 - B50) / (N50 - B50)</f>
+        <v>0.89338401665309075</v>
       </c>
       <c r="O73">
-        <f xml:space="preserve"> (K17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.3383915022761761</v>
+        <f xml:space="preserve"> (K17 - B50) / (O50 - B50)</f>
+        <v>1.3362807594763177</v>
       </c>
       <c r="P73">
-        <f xml:space="preserve"> (K18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.78864241348713393</v>
+        <f xml:space="preserve"> (K18 - B50) / (P50 - B50)</f>
+        <v>0.78949228933763427</v>
       </c>
       <c r="Q73">
-        <f xml:space="preserve"> (K19 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.1775280898876404</v>
+        <f xml:space="preserve"> (K19 - B50) / (Q50 - B50)</f>
+        <v>1.1473880597014925</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
@@ -3504,60 +3259,60 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <f xml:space="preserve"> (P29 - $B$46) / (D50 - $B$46)</f>
-        <v>0.99354453524385233</v>
+        <f xml:space="preserve"> (P29 - B50) / (C50 - B50)</f>
+        <v>0.99356638155448118</v>
       </c>
       <c r="E74">
-        <f xml:space="preserve"> (P31 - $B$46) / (E50 - $B$46)</f>
-        <v>1.4621212121212122</v>
+        <f xml:space="preserve"> (P31 - B50) / (E50 - B50)</f>
+        <v>1.3941841680129241</v>
       </c>
       <c r="F74">
-        <f xml:space="preserve"> (P24 - $B$46) / (F50 - $B$46)</f>
-        <v>1.424374276475989</v>
+        <f xml:space="preserve"> (P24 - B50) / (F50 - B50)</f>
+        <v>1.4228382785776788</v>
       </c>
       <c r="G74">
-        <f xml:space="preserve"> (P25 - $B$46) / (G50 - $B$46)</f>
-        <v>0.98855460092898995</v>
+        <f xml:space="preserve"> (P25 - B50) / (G50 - B50)</f>
+        <v>0.98858613381774141</v>
       </c>
       <c r="H74">
-        <f xml:space="preserve"> (P26 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1492556634304207</v>
+        <f xml:space="preserve"> (P26 - B50) / (H50 - B50)</f>
+        <v>1.1486718817158086</v>
       </c>
       <c r="I74">
-        <f xml:space="preserve"> (P27 - $B$46) / (I50 - $B$46)</f>
-        <v>1.2370403190075321</v>
+        <f xml:space="preserve"> (P27 - B50) / (I50 - B50)</f>
+        <v>1.232356134636265</v>
       </c>
       <c r="J74">
-        <f xml:space="preserve"> (Q28 - $B$46) / (J50 - $B$46)</f>
-        <v>1.167743921206525</v>
+        <f xml:space="preserve"> (Q28 - B50) / (J50 - B50)</f>
+        <v>1.1661923155112828</v>
       </c>
       <c r="K74">
-        <f xml:space="preserve"> (Q29 - $B$46) / (K50 - $B$46)</f>
-        <v>0.85651984300043615</v>
+        <f xml:space="preserve"> (Q29 - B50) / (K50 - B50)</f>
+        <v>0.86199664429530198</v>
       </c>
       <c r="L74">
-        <f xml:space="preserve"> (Q30 - $B$46) / (L50 - $B$46)</f>
-        <v>0.41032608695652173</v>
+        <f xml:space="preserve"> (Q30 - B50) / (L50 - B50)</f>
+        <v>0.42800658978583195</v>
       </c>
       <c r="M74">
-        <f xml:space="preserve"> (Q31 - $B$46) / (M50 - $B$46)</f>
-        <v>0.74932649134060292</v>
+        <f xml:space="preserve"> (Q31 - B50) / (M50 - B50)</f>
+        <v>0.75078120017856009</v>
       </c>
       <c r="N74">
-        <f xml:space="preserve"> (Q24 - $B$46) / (N50 - $B$46)</f>
-        <v>0.807811644460668</v>
+        <f xml:space="preserve"> (Q24 - B50) / (N50 - B50)</f>
+        <v>0.80939451534075479</v>
       </c>
       <c r="O74">
-        <f xml:space="preserve"> (Q25 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2022347910056559</v>
+        <f xml:space="preserve"> (Q25 - B50) / (O50 - B50)</f>
+        <v>1.2009733360751251</v>
       </c>
       <c r="P74">
-        <f xml:space="preserve"> (Q26 - $B$46) / (P50 - $B$46)</f>
-        <v>0.78731144631765748</v>
+        <f xml:space="preserve"> (Q26 - B50) / (P50 - B50)</f>
+        <v>0.78816667403119611</v>
       </c>
       <c r="Q74">
-        <f xml:space="preserve"> (Q27 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.2134831460674158</v>
+        <f xml:space="preserve"> (Q27 - B50) / (Q50 - B50)</f>
+        <v>1.1772388059701493</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
@@ -3565,60 +3320,60 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <f xml:space="preserve"> (R29 - $B$46) / (D50 - $B$46)</f>
-        <v>0.94906526362923993</v>
+        <f xml:space="preserve"> (R29 - B50) / (C50 - B50)</f>
+        <v>0.949237634808479</v>
       </c>
       <c r="E75">
-        <f xml:space="preserve"> (R31 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5568181818181819</v>
+        <f xml:space="preserve"> (R31 - B50) / (E50 - B50)</f>
+        <v>1.4749596122778674</v>
       </c>
       <c r="F75">
-        <f xml:space="preserve"> (R24 - $B$46) / (F50 - $B$46)</f>
-        <v>1.409923755538701</v>
+        <f xml:space="preserve"> (R24 - B50) / (F50 - B50)</f>
+        <v>1.4084400604566065</v>
       </c>
       <c r="G75">
-        <f xml:space="preserve"> (R25 - $B$46) / (G50 - $B$46)</f>
-        <v>0.9843650384043231</v>
+        <f xml:space="preserve"> (R25 - B50) / (G50 - B50)</f>
+        <v>0.98440811383590676</v>
       </c>
       <c r="H75">
-        <f xml:space="preserve"> (R26 - $B$46) / (H50 - $B$46)</f>
-        <v>1.2050053937432579</v>
+        <f xml:space="preserve"> (R26 - B50) / (H50 - B50)</f>
+        <v>1.2042035588412277</v>
       </c>
       <c r="I75">
-        <f xml:space="preserve"> (R27 - $B$46) / (I50 - $B$46)</f>
-        <v>1.1936198493575543</v>
+        <f xml:space="preserve"> (R27 - B50) / (I50 - B50)</f>
+        <v>1.1897937024972856</v>
       </c>
       <c r="J75">
-        <f xml:space="preserve"> (S28 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0561198317431004</v>
+        <f xml:space="preserve"> (S28 - B50) / (J50 - B50)</f>
+        <v>1.0556007318560683</v>
       </c>
       <c r="K75">
-        <f xml:space="preserve"> (S29 - $B$46) / (K50 - $B$46)</f>
-        <v>0.90623637156563452</v>
+        <f xml:space="preserve"> (S29 - B50) / (K50 - B50)</f>
+        <v>0.90981543624161076</v>
       </c>
       <c r="L75">
-        <f xml:space="preserve"> (S30 - $B$46) / (L50 - $B$46)</f>
-        <v>0.60122282608695654</v>
+        <f xml:space="preserve"> (S30 - B50) / (L50 - B50)</f>
+        <v>0.6131795716639209</v>
       </c>
       <c r="M75">
-        <f xml:space="preserve"> (S31 - $B$46) / (M50 - $B$46)</f>
-        <v>0.79037844772289934</v>
+        <f xml:space="preserve"> (S31 - B50) / (M50 - B50)</f>
+        <v>0.79159492379312546</v>
       </c>
       <c r="N75">
-        <f xml:space="preserve"> (S24 - $B$46) / (N50 - $B$46)</f>
-        <v>0.85289286366125205</v>
+        <f xml:space="preserve"> (S24 - B50) / (N50 - B50)</f>
+        <v>0.85410444384107154</v>
       </c>
       <c r="O75">
-        <f xml:space="preserve"> (S25 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2536901641605738</v>
+        <f xml:space="preserve"> (S25 - B50) / (O50 - B50)</f>
+        <v>1.2521077524162041</v>
       </c>
       <c r="P75">
-        <f xml:space="preserve"> (S26 - $B$46) / (P50 - $B$46)</f>
-        <v>0.81153504880212957</v>
+        <f xml:space="preserve"> (S26 - B50) / (P50 - B50)</f>
+        <v>0.81229287260836902</v>
       </c>
       <c r="Q75">
-        <f xml:space="preserve"> (S27 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.146067415730337</v>
+        <f xml:space="preserve"> (S27 - B50) / (Q50 - B50)</f>
+        <v>1.1212686567164178</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
@@ -3626,60 +3381,60 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <f xml:space="preserve"> (T21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.95406545020336575</v>
+        <f xml:space="preserve"> (T21 - B50) / (C50 - B50)</f>
+        <v>0.95422089996281145</v>
       </c>
       <c r="E76">
-        <f xml:space="preserve"> (T23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.3674242424242424</v>
+        <f xml:space="preserve"> (T23 - B50) / (E50 - B50)</f>
+        <v>1.3134087237479806</v>
       </c>
       <c r="F76">
-        <f xml:space="preserve"> (T16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.3280108578499861</v>
+        <f xml:space="preserve"> (T16 - B50) / (F50 - B50)</f>
+        <v>1.3268236417150585</v>
       </c>
       <c r="G76">
-        <f xml:space="preserve"> (T17 - $B$46) / (G50 - $B$46)</f>
-        <v>0.92977928898873674</v>
+        <f xml:space="preserve"> (T17 - B50) / (G50 - B50)</f>
+        <v>0.92997275204359675</v>
       </c>
       <c r="H76">
-        <f xml:space="preserve"> (T18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1664293419633225</v>
+        <f xml:space="preserve"> (T18 - B50) / (H50 - B50)</f>
+        <v>1.1657783890655893</v>
       </c>
       <c r="I76">
-        <f xml:space="preserve"> (T19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.2268498006202924</v>
+        <f xml:space="preserve"> (T19 - B50) / (I50 - B50)</f>
+        <v>1.2223669923995657</v>
       </c>
       <c r="J76">
-        <f xml:space="preserve"> (U20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.0823843233815533</v>
+        <f xml:space="preserve"> (U20 - B50) / (J50 - B50)</f>
+        <v>1.0816222809514129</v>
       </c>
       <c r="K76">
-        <f xml:space="preserve"> (U21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.88355865678150891</v>
+        <f xml:space="preserve"> (U21 - B50) / (K50 - B50)</f>
+        <v>0.88800335570469802</v>
       </c>
       <c r="L76">
-        <f xml:space="preserve"> (U22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.546875</v>
+        <f xml:space="preserve"> (U22 - B50) / (L50 - B50)</f>
+        <v>0.56046128500823722</v>
       </c>
       <c r="M76">
-        <f xml:space="preserve"> (U23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.78011545862732523</v>
+        <f xml:space="preserve"> (U23 - B50) / (M50 - B50)</f>
+        <v>0.78139149288948406</v>
       </c>
       <c r="N76">
-        <f xml:space="preserve"> (U16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.7983208614710714</v>
+        <f xml:space="preserve"> (U16 - B50) / (N50 - B50)</f>
+        <v>0.79998189881437232</v>
       </c>
       <c r="O76">
-        <f xml:space="preserve"> (U17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2447234101255344</v>
+        <f xml:space="preserve"> (U17 - B50) / (O50 - B50)</f>
+        <v>1.2431969291932279</v>
       </c>
       <c r="P76">
-        <f xml:space="preserve"> (U18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.73549245785270634</v>
+        <f xml:space="preserve"> (U18 - B50) / (P50 - B50)</f>
+        <v>0.73655605143387393</v>
       </c>
       <c r="Q76">
-        <f xml:space="preserve"> (U19 - $B$46) / (Q50 - $B$46)</f>
-        <v>1.047191011235955</v>
+        <f xml:space="preserve"> (U19 - B50) / (Q50 - B50)</f>
+        <v>1.039179104477612</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
@@ -3687,60 +3442,60 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <f xml:space="preserve"> (X21 - $B$46) / (D50 - $B$46)</f>
-        <v>0.93316914810254115</v>
+        <f xml:space="preserve"> (X21 - B50) / (C50 - B50)</f>
+        <v>0.93339531424321309</v>
       </c>
       <c r="E77">
-        <f xml:space="preserve"> (X23 - $B$46) / (E50 - $B$46)</f>
-        <v>1.5303030303030303</v>
+        <f xml:space="preserve"> (X23 - B50) / (E50 - B50)</f>
+        <v>1.4523424878836833</v>
       </c>
       <c r="F77">
-        <f xml:space="preserve"> (X16 - $B$46) / (F50 - $B$46)</f>
-        <v>1.4529559698215639</v>
+        <f xml:space="preserve"> (X16 - B50) / (F50 - B50)</f>
+        <v>1.4513165221541644</v>
       </c>
       <c r="G77">
-        <f xml:space="preserve"> (X17 - $B$46) / (G50 - $B$46)</f>
-        <v>0.97598591335498952</v>
+        <f xml:space="preserve"> (X17 - B50) / (G50 - B50)</f>
+        <v>0.97605207387223736</v>
       </c>
       <c r="H77">
-        <f xml:space="preserve"> (X18 - $B$46) / (H50 - $B$46)</f>
-        <v>1.1997411003236247</v>
+        <f xml:space="preserve"> (X18 - B50) / (H50 - B50)</f>
+        <v>1.1989598555832546</v>
       </c>
       <c r="I77">
-        <f xml:space="preserve"> (X19 - $B$46) / (I50 - $B$46)</f>
-        <v>1.4426229508196722</v>
+        <f xml:space="preserve"> (X19 - B50) / (I50 - B50)</f>
+        <v>1.4338762214983714</v>
       </c>
       <c r="J77">
-        <f xml:space="preserve"> (Y20 - $B$46) / (J50 - $B$46)</f>
-        <v>1.1640504770698676</v>
+        <f xml:space="preserve"> (Y20 - B50) / (J50 - B50)</f>
+        <v>1.16253303516975</v>
       </c>
       <c r="K77">
-        <f xml:space="preserve"> (Y21 - $B$46) / (K50 - $B$46)</f>
-        <v>0.94286960313999124</v>
+        <f xml:space="preserve"> (Y21 - B50) / (K50 - B50)</f>
+        <v>0.9450503355704698</v>
       </c>
       <c r="L77">
-        <f xml:space="preserve"> (Y22 - $B$46) / (L50 - $B$46)</f>
-        <v>0.54551630434782605</v>
+        <f xml:space="preserve"> (Y22 - B50) / (L50 - B50)</f>
+        <v>0.55914332784184517</v>
       </c>
       <c r="M77">
-        <f xml:space="preserve"> (Y23 - $B$46) / (M50 - $B$46)</f>
-        <v>0.7958948043617704</v>
+        <f xml:space="preserve"> (Y23 - B50) / (M50 - B50)</f>
+        <v>0.79707926790383266</v>
       </c>
       <c r="N77">
-        <f xml:space="preserve"> (Y16 - $B$46) / (N50 - $B$46)</f>
-        <v>0.81967512319766378</v>
+        <f xml:space="preserve"> (Y16 - B50) / (N50 - B50)</f>
+        <v>0.82116028599873292</v>
       </c>
       <c r="O77">
-        <f xml:space="preserve"> (Y17 - $B$46) / (O50 - $B$46)</f>
-        <v>1.2506552627948682</v>
+        <f xml:space="preserve"> (Y17 - B50) / (O50 - B50)</f>
+        <v>1.2490917814791966</v>
       </c>
       <c r="P77">
-        <f xml:space="preserve"> (Y18 - $B$46) / (P50 - $B$46)</f>
-        <v>0.76539485359361137</v>
+        <f xml:space="preserve"> (Y18 - B50) / (P50 - B50)</f>
+        <v>0.76633820865184921</v>
       </c>
       <c r="Q77">
-        <f xml:space="preserve"> (Y19 - $B$46) / (Q50 - $B$46)</f>
-        <v>0.95730337078651684</v>
+        <f xml:space="preserve"> (Y19 - B50) / (Q50 - B50)</f>
+        <v>0.96455223880597019</v>
       </c>
     </row>
   </sheetData>
